--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dcn-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dcn-Erbb4.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H2">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I2">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J2">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N2">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.033811128755</v>
+        <v>0.31714247402</v>
       </c>
       <c r="R2">
-        <v>0.13524451502</v>
+        <v>1.26856989608</v>
       </c>
       <c r="S2">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="T2">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>3043.598511</v>
       </c>
       <c r="I3">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J3">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N3">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>5.504855173561999</v>
+        <v>10.9594909716925</v>
       </c>
       <c r="R3">
-        <v>33.029131041372</v>
+        <v>65.756945830155</v>
       </c>
       <c r="S3">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="T3">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,34 +661,34 @@
         <v>23</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.105487</v>
+      </c>
+      <c r="H4">
+        <v>0.316461</v>
+      </c>
+      <c r="I4">
+        <v>9.69004775425603E-05</v>
+      </c>
+      <c r="J4">
+        <v>9.913460515332959E-05</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.3795506666666666</v>
-      </c>
-      <c r="H4">
-        <v>1.138652</v>
-      </c>
-      <c r="I4">
-        <v>0.0003579127261521251</v>
-      </c>
-      <c r="J4">
-        <v>0.0003616262407493544</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N4">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.002059441917333333</v>
+        <v>0.0011395233175</v>
       </c>
       <c r="R4">
-        <v>0.012356651504</v>
+        <v>0.006837139904999999</v>
       </c>
       <c r="S4">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H5">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I5">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J5">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N5">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.143452183763</v>
+        <v>0.47791998662375</v>
       </c>
       <c r="R5">
-        <v>0.573808735052</v>
+        <v>1.911679946495</v>
       </c>
       <c r="S5">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="T5">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,34 +785,34 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H6">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I6">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J6">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N6">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.06245524229866665</v>
+        <v>0.001633896129166667</v>
       </c>
       <c r="R6">
-        <v>0.374731453792</v>
+        <v>0.009803376775000001</v>
       </c>
       <c r="S6">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="T6">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.363916666666667</v>
+        <v>0.222333</v>
       </c>
       <c r="H7">
-        <v>4.09175</v>
+        <v>0.666999</v>
       </c>
       <c r="I7">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="J7">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N7">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.007400611833333333</v>
+        <v>0.0024017522325</v>
       </c>
       <c r="R7">
-        <v>0.044403671</v>
+        <v>0.014410513395</v>
       </c>
       <c r="S7">
-        <v>0.001286160650693063</v>
+        <v>0.0002042353453361084</v>
       </c>
       <c r="T7">
-        <v>0.001299505178567439</v>
+        <v>0.0002089441748040539</v>
       </c>
     </row>
   </sheetData>
